--- a/PostOffice.Web/obj/Release/Package/PackageTmp/Assets/admin/template/TKBD_Template_Sample.xlsx
+++ b/PostOffice.Web/obj/Release/Package/PackageTmp/Assets/admin/template/TKBD_Template_Sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Po_02092017150900\Po_02092017150900\PostOffice.Web\Assets\admin\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\develope\project\po-app-source\poApp-v1.1\PostOffice.Web\Assets\admin\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="10410" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,49 +24,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Số tiền</t>
-  </si>
-  <si>
-    <t>Lãi suất</t>
-  </si>
-  <si>
-    <t>Tên khách hàng</t>
-  </si>
-  <si>
-    <t>Số sổ</t>
-  </si>
-  <si>
-    <t>Số tài khoản</t>
-  </si>
-  <si>
-    <t>05/01/2017</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>SS7878</t>
-  </si>
-  <si>
-    <t>TK7325</t>
-  </si>
-  <si>
-    <t>Mã nhân viên</t>
-  </si>
-  <si>
-    <t>Ngày giao dịch
-(dd/MM/yyyy)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+  <si>
+    <t>DU THI KIM CHI</t>
+  </si>
+  <si>
+    <t>01318558</t>
+  </si>
+  <si>
+    <t>013185580001 - 003303670</t>
+  </si>
+  <si>
+    <t>VG12CK</t>
+  </si>
+  <si>
+    <t>01.004</t>
+  </si>
+  <si>
+    <t>VL12CK</t>
+  </si>
+  <si>
+    <t>VL06CK</t>
+  </si>
+  <si>
+    <t>VL03CK</t>
+  </si>
+  <si>
+    <t>NGUYEN BICH KHUYEN</t>
+  </si>
+  <si>
+    <t>00448570</t>
+  </si>
+  <si>
+    <t>004485700002 - 003456558</t>
+  </si>
+  <si>
+    <t>00.000</t>
+  </si>
+  <si>
+    <t>01309839</t>
+  </si>
+  <si>
+    <t>013098390001 - 003303739</t>
+  </si>
+  <si>
+    <t>013098390003 - 003456446</t>
+  </si>
+  <si>
+    <t>TRAN VAN VAN</t>
+  </si>
+  <si>
+    <t>01401780</t>
+  </si>
+  <si>
+    <t>014017800001 - 000946649</t>
+  </si>
+  <si>
+    <t>VAN THI LINH</t>
+  </si>
+  <si>
+    <t>01401676</t>
+  </si>
+  <si>
+    <t>014016760001 - 000946656</t>
+  </si>
+  <si>
+    <t>TO THI NHI</t>
+  </si>
+  <si>
+    <t>01368142</t>
+  </si>
+  <si>
+    <t>013681420001 - 000890338</t>
+  </si>
+  <si>
+    <t>PHAN THI THANH THUY</t>
+  </si>
+  <si>
+    <t>01302970</t>
+  </si>
+  <si>
+    <t>013029700001 - 003303965</t>
+  </si>
+  <si>
+    <t>TRAN THI THUY VAN</t>
+  </si>
+  <si>
+    <t>01300684</t>
+  </si>
+  <si>
+    <t>013006840003 - 003456587</t>
+  </si>
+  <si>
+    <t>01.001</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="\ dd\/mm\/yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -105,34 +192,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -150,17 +241,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G2" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="7">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I10" totalsRowShown="0">
+  <autoFilter ref="A1:I10"/>
+  <sortState ref="A2:I717">
+    <sortCondition ref="I1:I717"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" name="STT"/>
+    <tableColumn id="2" name="CustomerName"/>
     <tableColumn id="3" name="Column3"/>
     <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="5" name="Column5" dataDxfId="2" dataCellStyle="Comma"/>
     <tableColumn id="6" name="Column6"/>
     <tableColumn id="8" name="Column8"/>
+    <tableColumn id="7" name="Column7" dataDxfId="1"/>
+    <tableColumn id="9" name="Column9" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -427,78 +524,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3">
+        <v>326</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="5">
+        <v>42844</v>
+      </c>
+      <c r="G2" s="5">
+        <v>42844</v>
+      </c>
+      <c r="H2" s="3">
+        <v>180000000</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>615</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>42751</v>
+      </c>
+      <c r="G3" s="5">
+        <v>42751</v>
+      </c>
+      <c r="H3" s="3">
+        <v>130000000</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>616</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5">
+        <v>42795</v>
+      </c>
+      <c r="G4" s="5">
+        <v>42979</v>
+      </c>
+      <c r="H4" s="3">
+        <v>102811111</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>706</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="F5" s="5">
+        <v>41399</v>
+      </c>
+      <c r="G5" s="5">
+        <v>42952</v>
+      </c>
+      <c r="H5" s="3">
+        <v>189614</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>541</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5">
+        <v>41399</v>
+      </c>
+      <c r="G6" s="5">
+        <v>42952</v>
+      </c>
+      <c r="H6" s="3">
+        <v>252881</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>554</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5">
+        <v>41382</v>
+      </c>
+      <c r="G7" s="5">
+        <v>42934</v>
+      </c>
+      <c r="H7" s="3">
+        <v>252941</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>104</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5">
+        <v>42856</v>
+      </c>
+      <c r="G8" s="5">
+        <v>42856</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>42721</v>
+      </c>
+      <c r="G9" s="5">
+        <v>42721</v>
+      </c>
+      <c r="H9" s="3">
+        <v>15000000</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>190</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5">
-        <v>199000000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1717</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="F10" s="5">
+        <v>42772</v>
+      </c>
+      <c r="G10" s="5">
+        <v>42772</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
